--- a/excel/ShopData.xlsx
+++ b/excel/ShopData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858ACC72-656D-AC48-9106-70E2A3D48B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DCA63A-8B8C-E242-9EA0-E19982C770C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9580" yWindow="4020" windowWidth="19820" windowHeight="13180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>int;key</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -114,6 +114,24 @@
   </si>
   <si>
     <t>EndTime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum&lt;ShopType&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowderShop</t>
+  </si>
+  <si>
+    <t>CottonCandyShop</t>
+  </si>
+  <si>
+    <t>ShopType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeddingShop</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -198,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -221,11 +239,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -237,6 +266,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -458,7 +490,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -466,6 +498,7 @@
     <col min="1" max="1" width="14.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="26.5" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
@@ -478,6 +511,9 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -489,6 +525,9 @@
       <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="D2" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="15">
       <c r="A3" s="6" t="s">
@@ -500,6 +539,9 @@
       <c r="C3" s="8">
         <v>2400</v>
       </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" s="6" t="s">
@@ -511,6 +553,9 @@
       <c r="C4" s="8">
         <v>2400</v>
       </c>
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="15">
       <c r="A5" s="6" t="s">
@@ -521,6 +566,9 @@
       </c>
       <c r="C5" s="8">
         <v>2400</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13"/>
